--- a/new_modules/Summary_2023-05-07_L2A.xlsx
+++ b/new_modules/Summary_2023-05-07_L2A.xlsx
@@ -456,25 +456,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>1251.863037109375</v>
+        <v>1233.317016601562</v>
       </c>
       <c r="C2">
-        <v>0.9391</v>
+        <v>0.9252</v>
       </c>
       <c r="D2">
-        <v>0.9301000237464905</v>
+        <v>0.913100004196167</v>
       </c>
       <c r="E2">
-        <v>1.380800008773804</v>
+        <v>1.337200045585632</v>
       </c>
       <c r="F2">
-        <v>0.6366999745368958</v>
+        <v>0.6298999786376953</v>
       </c>
       <c r="G2">
         <v>13.33</v>
       </c>
       <c r="H2">
-        <v>0.9414</v>
+        <v>0.7916</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -482,25 +482,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>1226.074340820312</v>
+        <v>1147.790771484375</v>
       </c>
       <c r="C3">
-        <v>0.9809</v>
+        <v>0.9182</v>
       </c>
       <c r="D3">
-        <v>0.9482</v>
+        <v>0.9183</v>
       </c>
       <c r="E3">
-        <v>1.483299970626831</v>
+        <v>1.043799996376038</v>
       </c>
       <c r="F3">
-        <v>0.6736999750137329</v>
+        <v>0.794700026512146</v>
       </c>
       <c r="G3">
         <v>12.5</v>
       </c>
       <c r="H3">
-        <v>1.1024</v>
+        <v>0.8375</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -508,25 +508,25 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>811.8873901367188</v>
+        <v>789.2227783203125</v>
       </c>
       <c r="C4">
-        <v>0.9485</v>
+        <v>0.922</v>
       </c>
       <c r="D4">
-        <v>0.9052</v>
+        <v>0.9214</v>
       </c>
       <c r="E4">
-        <v>1.616000056266785</v>
+        <v>1.018800020217896</v>
       </c>
       <c r="F4">
-        <v>0.7595999836921692</v>
+        <v>0.7828999757766724</v>
       </c>
       <c r="G4">
         <v>8.56</v>
       </c>
       <c r="H4">
-        <v>0.7209</v>
+        <v>0.8651</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -534,25 +534,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>799.5687866210938</v>
+        <v>841.4779052734375</v>
       </c>
       <c r="C5">
-        <v>0.8434</v>
+        <v>0.8875999999999999</v>
       </c>
       <c r="D5">
-        <v>0.8369</v>
+        <v>0.8985</v>
       </c>
       <c r="E5">
-        <v>1.105800032615662</v>
+        <v>0.9667999744415283</v>
       </c>
       <c r="F5">
-        <v>0.5630999803543091</v>
+        <v>0.5730000138282776</v>
       </c>
       <c r="G5">
         <v>9.48</v>
       </c>
       <c r="H5">
-        <v>0.1162</v>
+        <v>0.6623</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -560,25 +560,25 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>1101.6181640625</v>
+        <v>1145.45166015625</v>
       </c>
       <c r="C6">
-        <v>0.8715000000000001</v>
+        <v>0.9062</v>
       </c>
       <c r="D6">
-        <v>0.8667</v>
+        <v>0.9137</v>
       </c>
       <c r="E6">
-        <v>1.079200029373169</v>
+        <v>0.9592000246047974</v>
       </c>
       <c r="F6">
-        <v>0.6793000102043152</v>
+        <v>0.6822999715805054</v>
       </c>
       <c r="G6">
         <v>12.64</v>
       </c>
       <c r="H6">
-        <v>0.3799</v>
+        <v>0.7963</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -586,25 +586,25 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>855.6359252929688</v>
+        <v>899.5681762695312</v>
       </c>
       <c r="C7">
-        <v>0.8617</v>
+        <v>0.9059</v>
       </c>
       <c r="D7">
-        <v>0.8626000285148621</v>
+        <v>0.9139000177383423</v>
       </c>
       <c r="E7">
-        <v>1.006899952888489</v>
+        <v>0.9584000110626221</v>
       </c>
       <c r="F7">
-        <v>0.708899974822998</v>
+        <v>0.746399998664856</v>
       </c>
       <c r="G7">
         <v>9.93</v>
       </c>
       <c r="H7">
-        <v>0.3444</v>
+        <v>0.7984</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -612,25 +612,25 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>940.4127197265625</v>
+        <v>996.4227294921875</v>
       </c>
       <c r="C8">
-        <v>0.8427</v>
+        <v>0.8929</v>
       </c>
       <c r="D8">
-        <v>0.8423</v>
+        <v>0.8972</v>
       </c>
       <c r="E8">
-        <v>1.075399994850159</v>
+        <v>0.9605000019073486</v>
       </c>
       <c r="F8">
-        <v>0.7231000065803528</v>
+        <v>0.7840999960899353</v>
       </c>
       <c r="G8">
         <v>11.16</v>
       </c>
       <c r="H8">
-        <v>0.1638</v>
+        <v>0.6501</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -638,25 +638,25 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>6987.06005859375</v>
+        <v>7053.25146484375</v>
       </c>
       <c r="C9">
-        <v>0.9005</v>
+        <v>0.9089</v>
       </c>
       <c r="D9">
-        <v>0.885</v>
+        <v>0.9121</v>
       </c>
       <c r="E9">
-        <v>1.616000056266785</v>
+        <v>1.337200045585632</v>
       </c>
       <c r="F9">
-        <v>0.5630999803543091</v>
+        <v>0.5730000138282776</v>
       </c>
       <c r="G9">
         <v>77.59999999999999</v>
       </c>
       <c r="H9">
-        <v>3.769</v>
+        <v>5.401300000000001</v>
       </c>
     </row>
   </sheetData>

--- a/new_modules/Summary_2023-05-07_L2A.xlsx
+++ b/new_modules/Summary_2023-05-07_L2A.xlsx
@@ -456,25 +456,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>1233.317016601562</v>
+        <v>1251.62255859375</v>
       </c>
       <c r="C2">
-        <v>0.9252</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="D2">
-        <v>0.913100004196167</v>
+        <v>0.9298999905586243</v>
       </c>
       <c r="E2">
-        <v>1.337200045585632</v>
+        <v>1.380499958992004</v>
       </c>
       <c r="F2">
-        <v>0.6298999786376953</v>
+        <v>0.6366000175476074</v>
       </c>
       <c r="G2">
         <v>13.33</v>
       </c>
       <c r="H2">
-        <v>0.7916</v>
+        <v>0.9399</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -482,25 +482,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>1147.790771484375</v>
+        <v>1225.838745117188</v>
       </c>
       <c r="C3">
-        <v>0.9182</v>
+        <v>0.9807</v>
       </c>
       <c r="D3">
-        <v>0.9183</v>
+        <v>0.948</v>
       </c>
       <c r="E3">
-        <v>1.043799996376038</v>
+        <v>1.483100056648254</v>
       </c>
       <c r="F3">
-        <v>0.794700026512146</v>
+        <v>0.6736000180244446</v>
       </c>
       <c r="G3">
         <v>12.5</v>
       </c>
       <c r="H3">
-        <v>0.8375</v>
+        <v>1.1008</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -508,25 +508,25 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>789.2227783203125</v>
+        <v>811.7313842773438</v>
       </c>
       <c r="C4">
-        <v>0.922</v>
+        <v>0.9483</v>
       </c>
       <c r="D4">
-        <v>0.9214</v>
+        <v>0.905</v>
       </c>
       <c r="E4">
-        <v>1.018800020217896</v>
+        <v>1.615599989891052</v>
       </c>
       <c r="F4">
-        <v>0.7828999757766724</v>
+        <v>0.7594000101089478</v>
       </c>
       <c r="G4">
         <v>8.56</v>
       </c>
       <c r="H4">
-        <v>0.8651</v>
+        <v>0.7193000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -534,25 +534,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>841.4779052734375</v>
+        <v>799.4152221679688</v>
       </c>
       <c r="C5">
-        <v>0.8875999999999999</v>
+        <v>0.8433</v>
       </c>
       <c r="D5">
-        <v>0.8985</v>
+        <v>0.8367</v>
       </c>
       <c r="E5">
-        <v>0.9667999744415283</v>
+        <v>1.105599999427795</v>
       </c>
       <c r="F5">
-        <v>0.5730000138282776</v>
+        <v>0.5630000233650208</v>
       </c>
       <c r="G5">
         <v>9.48</v>
       </c>
       <c r="H5">
-        <v>0.6623</v>
+        <v>0.1147</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -560,25 +560,25 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>1145.45166015625</v>
+        <v>1101.406494140625</v>
       </c>
       <c r="C6">
-        <v>0.9062</v>
+        <v>0.8714</v>
       </c>
       <c r="D6">
-        <v>0.9137</v>
+        <v>0.8665</v>
       </c>
       <c r="E6">
-        <v>0.9592000246047974</v>
+        <v>1.078999996185303</v>
       </c>
       <c r="F6">
-        <v>0.6822999715805054</v>
+        <v>0.679099977016449</v>
       </c>
       <c r="G6">
         <v>12.64</v>
       </c>
       <c r="H6">
-        <v>0.7963</v>
+        <v>0.3784</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -586,25 +586,25 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>899.5681762695312</v>
+        <v>855.4713745117188</v>
       </c>
       <c r="C7">
-        <v>0.9059</v>
+        <v>0.8615</v>
       </c>
       <c r="D7">
-        <v>0.9139000177383423</v>
+        <v>0.862500011920929</v>
       </c>
       <c r="E7">
-        <v>0.9584000110626221</v>
+        <v>1.006800055503845</v>
       </c>
       <c r="F7">
-        <v>0.746399998664856</v>
+        <v>0.7088000178337097</v>
       </c>
       <c r="G7">
         <v>9.93</v>
       </c>
       <c r="H7">
-        <v>0.7984</v>
+        <v>0.3429</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -612,25 +612,25 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>996.4227294921875</v>
+        <v>940.2319946289062</v>
       </c>
       <c r="C8">
-        <v>0.8929</v>
+        <v>0.8425</v>
       </c>
       <c r="D8">
-        <v>0.8972</v>
+        <v>0.8421</v>
       </c>
       <c r="E8">
-        <v>0.9605000019073486</v>
+        <v>1.075199961662292</v>
       </c>
       <c r="F8">
-        <v>0.7840999960899353</v>
+        <v>0.7229999899864197</v>
       </c>
       <c r="G8">
         <v>11.16</v>
       </c>
       <c r="H8">
-        <v>0.6501</v>
+        <v>0.1623</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -638,25 +638,25 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>7053.25146484375</v>
+        <v>6985.7177734375</v>
       </c>
       <c r="C9">
-        <v>0.9089</v>
+        <v>0.9003</v>
       </c>
       <c r="D9">
-        <v>0.9121</v>
+        <v>0.8848</v>
       </c>
       <c r="E9">
-        <v>1.337200045585632</v>
+        <v>1.615599989891052</v>
       </c>
       <c r="F9">
-        <v>0.5730000138282776</v>
+        <v>0.5630000233650208</v>
       </c>
       <c r="G9">
         <v>77.59999999999999</v>
       </c>
       <c r="H9">
-        <v>5.401300000000001</v>
+        <v>3.7583</v>
       </c>
     </row>
   </sheetData>
